--- a/Assignment3/Tables/Given_data.xlsx
+++ b/Assignment3/Tables/Given_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659E93E7-A40F-4486-934F-6BC8298002D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C06615-B11A-4416-A970-69259C331775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{363F3006-B5C3-41AC-BDAE-C450B67B65B6}"/>
   </bookViews>
@@ -49,19 +49,19 @@
     <t xml:space="preserve"> 600 - 700</t>
   </si>
   <si>
-    <t xml:space="preserve"> 800 - 900</t>
+    <t xml:space="preserve"> 700 - 800</t>
+  </si>
+  <si>
+    <t>Lifetime(in hrs)</t>
+  </si>
+  <si>
+    <t>No.of neon lamps</t>
   </si>
   <si>
     <t xml:space="preserve"> 900 - 1000</t>
   </si>
   <si>
-    <t xml:space="preserve"> 700 - 800</t>
-  </si>
-  <si>
-    <t>Lifetime(in hrs)</t>
-  </si>
-  <si>
-    <t>No.of neon lamps</t>
+    <t xml:space="preserve"> 800 -900</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,10 +434,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -474,7 +474,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>74</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>62</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>48</v>
@@ -503,6 +503,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F5EEB94D01041448004489100BEE17F" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd953880d40773b96cb653378cf5b14b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0d3b7092-47a7-4f4b-893c-0ac09dce8824" xmlns:ns4="b725cd41-bc11-4eca-98a0-8cd6287fa79c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef456ba3bca350d10dea1e8e78026500" ns3:_="" ns4:_="">
     <xsd:import namespace="0d3b7092-47a7-4f4b-893c-0ac09dce8824"/>
@@ -687,15 +696,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -703,6 +703,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{223E4AC1-77A5-40C2-87CD-4DC9580EC82A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9942825B-71EA-42F8-8FFF-AD50FC373C2B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -721,14 +729,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{223E4AC1-77A5-40C2-87CD-4DC9580EC82A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD8FD2C-A243-431E-A901-AA7CE33E514A}">
   <ds:schemaRefs>

--- a/Assignment3/Tables/Given_data.xlsx
+++ b/Assignment3/Tables/Given_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C06615-B11A-4416-A970-69259C331775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E203B30-1E5D-42C9-A42E-280CF466FB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{363F3006-B5C3-41AC-BDAE-C450B67B65B6}"/>
   </bookViews>
@@ -61,7 +61,7 @@
     <t xml:space="preserve"> 900 - 1000</t>
   </si>
   <si>
-    <t xml:space="preserve"> 800 -900</t>
+    <t xml:space="preserve"> 800 - 900</t>
   </si>
 </sst>
 </file>
@@ -503,15 +503,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F5EEB94D01041448004489100BEE17F" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd953880d40773b96cb653378cf5b14b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0d3b7092-47a7-4f4b-893c-0ac09dce8824" xmlns:ns4="b725cd41-bc11-4eca-98a0-8cd6287fa79c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef456ba3bca350d10dea1e8e78026500" ns3:_="" ns4:_="">
     <xsd:import namespace="0d3b7092-47a7-4f4b-893c-0ac09dce8824"/>
@@ -696,6 +687,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -703,14 +703,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{223E4AC1-77A5-40C2-87CD-4DC9580EC82A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9942825B-71EA-42F8-8FFF-AD50FC373C2B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -729,6 +721,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{223E4AC1-77A5-40C2-87CD-4DC9580EC82A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD8FD2C-A243-431E-A901-AA7CE33E514A}">
   <ds:schemaRefs>

--- a/Assignment3/Tables/Given_data.xlsx
+++ b/Assignment3/Tables/Given_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E203B30-1E5D-42C9-A42E-280CF466FB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29184FE7-8FF2-449A-AB10-B72BAFC920DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{363F3006-B5C3-41AC-BDAE-C450B67B65B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6B39F2C4-95EE-4344-973D-7CC119C493F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
+    <t>Lifetime(in hrs)</t>
+  </si>
+  <si>
+    <t>No.of neon lamps</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 300 - 400</t>
   </si>
   <si>
@@ -52,16 +58,10 @@
     <t xml:space="preserve"> 700 - 800</t>
   </si>
   <si>
-    <t>Lifetime(in hrs)</t>
-  </si>
-  <si>
-    <t>No.of neon lamps</t>
+    <t xml:space="preserve"> 800 - 900</t>
   </si>
   <si>
     <t xml:space="preserve"> 900 - 1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 800 - 900</t>
   </si>
 </sst>
 </file>
@@ -91,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -99,13 +99,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +192,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1158240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1165860</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3ADB61D-C7AE-4C09-A450-17F1C5720E01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1158240" y="220980"/>
+          <a:ext cx="7620" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1150620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1165860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{113988D3-E5BE-4F48-B633-BC3DB1C93517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1150620" y="0"/>
+          <a:ext cx="15240" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,86 +595,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0ACAE08-D280-4F94-AB86-1C1C793A6AB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C2E4FB-E47E-4E5D-9E38-F65629121391}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="16.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -703,7 +880,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9942825B-71EA-42F8-8FFF-AD50FC373C2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27F2F7F-400D-4482-A19A-C58EC913E773}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -722,7 +899,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{223E4AC1-77A5-40C2-87CD-4DC9580EC82A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B25AE320-B793-4E76-909C-9DA4324950B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -730,18 +907,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD8FD2C-A243-431E-A901-AA7CE33E514A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{354FBEA1-F3AC-4475-A62F-E05777AB92D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0d3b7092-47a7-4f4b-893c-0ac09dce8824"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="b725cd41-bc11-4eca-98a0-8cd6287fa79c"/>
-    <ds:schemaRef ds:uri="0d3b7092-47a7-4f4b-893c-0ac09dce8824"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>